--- a/paper/revision-tasks.xlsx
+++ b/paper/revision-tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757BC4D9-8DA9-43B8-85F7-2E33A1B673A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Reviewer</t>
   </si>
@@ -152,12 +152,21 @@
   </si>
   <si>
     <t>Find a source of daily data; see if this is feasible.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Doneish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,12 +190,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,10 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,20 +503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="110.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +529,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -525,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -539,21 +561,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -567,7 +592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -577,11 +602,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -594,8 +622,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -605,11 +636,14 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -619,11 +653,14 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -637,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -647,11 +684,11 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -665,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -675,11 +712,11 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -693,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -707,7 +744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -721,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -735,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -749,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -759,7 +796,7 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/paper/revision-tasks.xlsx
+++ b/paper/revision-tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757BC4D9-8DA9-43B8-85F7-2E33A1B673A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Reviewer</t>
   </si>
@@ -161,12 +161,15 @@
   </si>
   <si>
     <t>Doneish</t>
+  </si>
+  <si>
+    <t>Not Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,20 +506,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="110.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="110.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -547,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -561,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -578,7 +581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -592,7 +595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -609,7 +612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -626,7 +629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -643,7 +646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -660,7 +663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -674,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -702,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -715,8 +721,11 @@
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -730,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -744,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -758,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -772,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -786,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -798,6 +807,9 @@
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/paper/revision-tasks.xlsx
+++ b/paper/revision-tasks.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Reviewer</t>
   </si>
@@ -158,9 +157,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Doneish</t>
   </si>
   <si>
     <t>Not Done</t>
@@ -510,7 +506,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -809,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
